--- a/Measurement_Results/DLS/Data_verslag/1.24.xlsx
+++ b/Measurement_Results/DLS/Data_verslag/1.24.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lies/Documents/Bachelorproef/Measurement_Results/DLS/Data_verslag/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11820"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="14360" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
   <si>
     <t>Acq N°1</t>
   </si>
@@ -38,12 +48,21 @@
   <si>
     <t>Acq N°5</t>
   </si>
+  <si>
+    <t>Pop 1 int</t>
+  </si>
+  <si>
+    <t>Pop2 int</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +99,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -126,12 +150,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -158,14 +182,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -192,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,16 +393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="G238" workbookViewId="0">
+      <selection activeCell="S251" sqref="S251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,8 +430,11 @@
       <c r="Q1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -460,8 +489,14 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>0.1</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.10473200000000001</v>
       </c>
@@ -516,8 +551,14 @@
       <c r="R3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0.10473200000000001</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.10968799999999999</v>
       </c>
@@ -572,8 +613,21 @@
       <c r="R4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0.10968799999999999</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <f>AVERAGE(F90,H78,J82,N103,L57)</f>
+        <v>5.1300443213836436E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.114879</v>
       </c>
@@ -628,8 +682,21 @@
       <c r="R5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>0.114879</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <f>AVERAGE(B127,D128,F127,H127,J129,L123,N124,P121,R123)</f>
+        <v>0.97149975377009112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.12031500000000001</v>
       </c>
@@ -684,8 +751,14 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0.12031500000000001</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.12600900000000001</v>
       </c>
@@ -740,8 +813,14 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>0.12600900000000001</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.13197200000000001</v>
       </c>
@@ -796,8 +875,14 @@
       <c r="R8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>0.13197200000000001</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.13821700000000001</v>
       </c>
@@ -852,8 +937,14 @@
       <c r="R9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>0.13821700000000001</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.144758</v>
       </c>
@@ -908,8 +999,14 @@
       <c r="R10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>0.144758</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.15160799999999999</v>
       </c>
@@ -964,8 +1061,14 @@
       <c r="R11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>0.15160799999999999</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.15878300000000001</v>
       </c>
@@ -1020,8 +1123,14 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>0.15878300000000001</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.166297</v>
       </c>
@@ -1076,8 +1185,14 @@
       <c r="R13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>0.166297</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.17416599999999999</v>
       </c>
@@ -1132,8 +1247,14 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>0.17416599999999999</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.18240799999999999</v>
       </c>
@@ -1188,8 +1309,14 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>0.18240799999999999</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.19103999999999999</v>
       </c>
@@ -1244,8 +1371,14 @@
       <c r="R16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>0.19103999999999999</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.20008100000000001</v>
       </c>
@@ -1300,8 +1433,14 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>0.20008100000000001</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.20954900000000001</v>
       </c>
@@ -1356,8 +1495,14 @@
       <c r="R18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>0.20954900000000001</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.21946499999999999</v>
       </c>
@@ -1412,8 +1557,14 @@
       <c r="R19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>0.21946499999999999</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.229851</v>
       </c>
@@ -1468,8 +1619,14 @@
       <c r="R20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>0.229851</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.240728</v>
       </c>
@@ -1524,8 +1681,14 @@
       <c r="R21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>0.240728</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.25211899999999998</v>
       </c>
@@ -1580,8 +1743,14 @@
       <c r="R22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>0.25211899999999998</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.26405000000000001</v>
       </c>
@@ -1636,8 +1805,14 @@
       <c r="R23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>0.26405000000000001</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.27654600000000001</v>
       </c>
@@ -1692,8 +1867,14 @@
       <c r="R24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>0.27654600000000001</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.28963299999999997</v>
       </c>
@@ -1748,8 +1929,14 @@
       <c r="R25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>0.28963299999999997</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.30333900000000003</v>
       </c>
@@ -1804,8 +1991,14 @@
       <c r="R26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>0.30333900000000003</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.317693</v>
       </c>
@@ -1860,8 +2053,14 @@
       <c r="R27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>0.317693</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.33272699999999999</v>
       </c>
@@ -1916,8 +2115,14 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>0.33272699999999999</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.34847299999999998</v>
       </c>
@@ -1972,8 +2177,14 @@
       <c r="R29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>0.34847299999999998</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.36496299999999998</v>
       </c>
@@ -2028,8 +2239,14 @@
       <c r="R30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>0.36496299999999998</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.38223400000000002</v>
       </c>
@@ -2084,8 +2301,14 @@
       <c r="R31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>0.38223400000000002</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.40032200000000001</v>
       </c>
@@ -2140,8 +2363,14 @@
       <c r="R32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>0.40032200000000001</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.41926600000000003</v>
       </c>
@@ -2196,8 +2425,14 @@
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>0.41926600000000003</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.43910700000000003</v>
       </c>
@@ -2252,8 +2487,14 @@
       <c r="R34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>0.43910700000000003</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.45988600000000002</v>
       </c>
@@ -2308,8 +2549,14 @@
       <c r="R35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>0.45988600000000002</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.48164899999999999</v>
       </c>
@@ -2364,8 +2611,14 @@
       <c r="R36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36">
+        <v>0.48164899999999999</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.50444199999999995</v>
       </c>
@@ -2420,8 +2673,14 @@
       <c r="R37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>0.50444199999999995</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.52831300000000003</v>
       </c>
@@ -2476,8 +2735,14 @@
       <c r="R38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38">
+        <v>0.52831300000000003</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.55331399999999997</v>
       </c>
@@ -2532,8 +2797,14 @@
       <c r="R39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>0.55331399999999997</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.57949799999999996</v>
       </c>
@@ -2588,8 +2859,14 @@
       <c r="R40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>0.57949799999999996</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.60692199999999996</v>
       </c>
@@ -2644,8 +2921,14 @@
       <c r="R41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>0.60692199999999996</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.63564200000000004</v>
       </c>
@@ -2700,8 +2983,14 @@
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>0.63564200000000004</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.66572200000000004</v>
       </c>
@@ -2756,8 +3045,14 @@
       <c r="R43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43">
+        <v>0.66572200000000004</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.69722600000000001</v>
       </c>
@@ -2812,8 +3107,14 @@
       <c r="R44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44">
+        <v>0.69722600000000001</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.73021999999999998</v>
       </c>
@@ -2868,8 +3169,14 @@
       <c r="R45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45">
+        <v>0.73021999999999998</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.76477600000000001</v>
       </c>
@@ -2924,8 +3231,14 @@
       <c r="R46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46">
+        <v>0.76477600000000001</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.80096699999999998</v>
       </c>
@@ -2980,8 +3293,14 @@
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47">
+        <v>0.80096699999999998</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.83887</v>
       </c>
@@ -3036,8 +3355,14 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48">
+        <v>0.83887</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.87856699999999999</v>
       </c>
@@ -3092,8 +3417,14 @@
       <c r="R49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49">
+        <v>0.87856699999999999</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.92014300000000004</v>
       </c>
@@ -3148,8 +3479,14 @@
       <c r="R50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50">
+        <v>0.92014300000000004</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.96368600000000004</v>
       </c>
@@ -3204,8 +3541,14 @@
       <c r="R51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51">
+        <v>0.96368600000000004</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1.00929</v>
       </c>
@@ -3260,8 +3603,14 @@
       <c r="R52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52">
+        <v>1.00929</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1.0570520000000001</v>
       </c>
@@ -3316,8 +3665,14 @@
       <c r="R53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53">
+        <v>1.0570520000000001</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1.1070739999999999</v>
       </c>
@@ -3372,8 +3727,14 @@
       <c r="R54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54">
+        <v>1.1070739999999999</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1.1594629999999999</v>
       </c>
@@ -3428,8 +3789,14 @@
       <c r="R55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55">
+        <v>1.1594629999999999</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1.214332</v>
       </c>
@@ -3484,8 +3851,14 @@
       <c r="R56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56">
+        <v>1.214332</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1.2717970000000001</v>
       </c>
@@ -3540,8 +3913,14 @@
       <c r="R57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="S57">
+        <v>1.2717970000000001</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.3319810000000001</v>
       </c>
@@ -3596,8 +3975,14 @@
       <c r="R58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="S58">
+        <v>1.3319810000000001</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1.3950130000000001</v>
       </c>
@@ -3652,8 +4037,14 @@
       <c r="R59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="S59">
+        <v>1.3950130000000001</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1.461028</v>
       </c>
@@ -3708,8 +4099,14 @@
       <c r="R60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="S60">
+        <v>1.461028</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1.5301670000000001</v>
       </c>
@@ -3764,8 +4161,14 @@
       <c r="R61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:18">
+      <c r="S61">
+        <v>1.5301670000000001</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1.6025780000000001</v>
       </c>
@@ -3820,8 +4223,14 @@
       <c r="R62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="S62">
+        <v>1.6025780000000001</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1.6784159999999999</v>
       </c>
@@ -3876,8 +4285,14 @@
       <c r="R63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="S63">
+        <v>1.6784159999999999</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.7578419999999999</v>
       </c>
@@ -3932,8 +4347,14 @@
       <c r="R64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:18">
+      <c r="S64">
+        <v>1.7578419999999999</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1.841027</v>
       </c>
@@ -3988,8 +4409,14 @@
       <c r="R65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:18">
+      <c r="S65">
+        <v>1.841027</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1.9281489999999999</v>
       </c>
@@ -4044,8 +4471,14 @@
       <c r="R66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:18">
+      <c r="S66">
+        <v>1.9281489999999999</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2.019393</v>
       </c>
@@ -4100,8 +4533,14 @@
       <c r="R67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:18">
+      <c r="S67">
+        <v>2.019393</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2.1149550000000001</v>
       </c>
@@ -4156,8 +4595,14 @@
       <c r="R68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18">
+      <c r="S68">
+        <v>2.1149550000000001</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2.2150400000000001</v>
       </c>
@@ -4212,8 +4657,14 @@
       <c r="R69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:18">
+      <c r="S69">
+        <v>2.2150400000000001</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2.3198599999999998</v>
       </c>
@@ -4268,8 +4719,14 @@
       <c r="R70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:18">
+      <c r="S70">
+        <v>2.3198599999999998</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2.4296410000000002</v>
       </c>
@@ -4324,8 +4781,14 @@
       <c r="R71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:18">
+      <c r="S71">
+        <v>2.4296410000000002</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2.5446170000000001</v>
       </c>
@@ -4380,8 +4843,14 @@
       <c r="R72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:18">
+      <c r="S72">
+        <v>2.5446170000000001</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2.6650339999999999</v>
       </c>
@@ -4436,8 +4905,14 @@
       <c r="R73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:18">
+      <c r="S73">
+        <v>2.6650339999999999</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2.79115</v>
       </c>
@@ -4492,8 +4967,14 @@
       <c r="R74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:18">
+      <c r="S74">
+        <v>2.79115</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2.9232330000000002</v>
       </c>
@@ -4548,8 +5029,14 @@
       <c r="R75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:18">
+      <c r="S75">
+        <v>2.9232330000000002</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3.0615670000000001</v>
       </c>
@@ -4604,8 +5091,14 @@
       <c r="R76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:18">
+      <c r="S76">
+        <v>3.0615670000000001</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3.2064469999999998</v>
       </c>
@@ -4660,8 +5153,14 @@
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18">
+      <c r="S77">
+        <v>3.2064469999999998</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3.3581829999999999</v>
       </c>
@@ -4716,8 +5215,14 @@
       <c r="R78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18">
+      <c r="S78">
+        <v>3.3581829999999999</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3.5171000000000001</v>
       </c>
@@ -4772,8 +5277,14 @@
       <c r="R79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:18">
+      <c r="S79">
+        <v>3.5171000000000001</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3.6835369999999998</v>
       </c>
@@ -4828,8 +5339,14 @@
       <c r="R80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:18">
+      <c r="S80">
+        <v>3.6835369999999998</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3.85785</v>
       </c>
@@ -4884,8 +5401,14 @@
       <c r="R81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:18">
+      <c r="S81">
+        <v>3.85785</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4.0404119999999999</v>
       </c>
@@ -4940,8 +5463,14 @@
       <c r="R82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:18">
+      <c r="S82">
+        <v>4.0404119999999999</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4.2316140000000004</v>
       </c>
@@ -4996,8 +5525,14 @@
       <c r="R83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:18">
+      <c r="S83">
+        <v>4.2316140000000004</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4.4318629999999999</v>
       </c>
@@ -5052,8 +5587,14 @@
       <c r="R84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:18">
+      <c r="S84">
+        <v>4.4318629999999999</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4.6415889999999997</v>
       </c>
@@ -5108,8 +5649,14 @@
       <c r="R85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:18">
+      <c r="S85">
+        <v>4.6415889999999997</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4.8612390000000003</v>
       </c>
@@ -5164,8 +5711,15 @@
       <c r="R86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:18">
+      <c r="S86">
+        <v>4.8612390000000003</v>
+      </c>
+      <c r="T86">
+        <f>Y4</f>
+        <v>5.1300443213836436E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5.0912839999999999</v>
       </c>
@@ -5220,8 +5774,14 @@
       <c r="R87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:18">
+      <c r="S87">
+        <v>5.0912839999999999</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5.3322149999999997</v>
       </c>
@@ -5276,8 +5836,14 @@
       <c r="R88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:18">
+      <c r="S88">
+        <v>5.3322149999999997</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5.5845469999999997</v>
       </c>
@@ -5332,8 +5898,14 @@
       <c r="R89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:18">
+      <c r="S89">
+        <v>5.5845469999999997</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5.8488199999999999</v>
       </c>
@@ -5388,8 +5960,14 @@
       <c r="R90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:18">
+      <c r="S90">
+        <v>5.8488199999999999</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6.1255990000000002</v>
       </c>
@@ -5444,8 +6022,14 @@
       <c r="R91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:18">
+      <c r="S91">
+        <v>6.1255990000000002</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6.415476</v>
       </c>
@@ -5500,8 +6084,14 @@
       <c r="R92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:18">
+      <c r="S92">
+        <v>6.415476</v>
+      </c>
+      <c r="T92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6.7190709999999996</v>
       </c>
@@ -5556,8 +6146,14 @@
       <c r="R93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:18">
+      <c r="S93">
+        <v>6.7190709999999996</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7.0370330000000001</v>
       </c>
@@ -5612,8 +6208,14 @@
       <c r="R94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:18">
+      <c r="S94">
+        <v>7.0370330000000001</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7.3700409999999996</v>
       </c>
@@ -5668,8 +6270,14 @@
       <c r="R95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:18">
+      <c r="S95">
+        <v>7.3700409999999996</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7.718807</v>
       </c>
@@ -5724,8 +6332,14 @@
       <c r="R96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:18">
+      <c r="S96">
+        <v>7.718807</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8.0840789999999991</v>
       </c>
@@ -5780,8 +6394,14 @@
       <c r="R97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:18">
+      <c r="S97">
+        <v>8.0840789999999991</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8.4666350000000001</v>
       </c>
@@ -5836,8 +6456,14 @@
       <c r="R98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:18">
+      <c r="S98">
+        <v>8.4666350000000001</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8.8672950000000004</v>
       </c>
@@ -5892,8 +6518,14 @@
       <c r="R99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18">
+      <c r="S99">
+        <v>8.8672950000000004</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9.2869150000000005</v>
       </c>
@@ -5948,8 +6580,14 @@
       <c r="R100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:18">
+      <c r="S100">
+        <v>9.2869150000000005</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9.7263929999999998</v>
       </c>
@@ -6004,8 +6642,14 @@
       <c r="R101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:18">
+      <c r="S101">
+        <v>9.7263929999999998</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>10.186667</v>
       </c>
@@ -6060,8 +6704,14 @@
       <c r="R102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:18">
+      <c r="S102">
+        <v>10.186667</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>10.668723</v>
       </c>
@@ -6116,8 +6766,14 @@
       <c r="R103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:18">
+      <c r="S103">
+        <v>10.668723</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>11.173591</v>
       </c>
@@ -6172,8 +6828,14 @@
       <c r="R104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:18">
+      <c r="S104">
+        <v>11.173591</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>11.702349999999999</v>
       </c>
@@ -6228,8 +6890,14 @@
       <c r="R105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="S105">
+        <v>11.702349999999999</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>12.256131999999999</v>
       </c>
@@ -6284,8 +6952,14 @@
       <c r="R106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="S106">
+        <v>12.256131999999999</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12.836119</v>
       </c>
@@ -6340,8 +7014,14 @@
       <c r="R107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107">
+        <v>12.836119</v>
+      </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13.443553</v>
       </c>
@@ -6396,8 +7076,14 @@
       <c r="R108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108">
+        <v>13.443553</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>14.079732</v>
       </c>
@@ -6452,8 +7138,14 @@
       <c r="R109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109">
+        <v>14.079732</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>14.746015999999999</v>
       </c>
@@ -6508,8 +7200,14 @@
       <c r="R110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110">
+        <v>14.746015999999999</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>15.44383</v>
       </c>
@@ -6564,8 +7262,14 @@
       <c r="R111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111">
+        <v>15.44383</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>16.174666999999999</v>
       </c>
@@ -6620,8 +7324,14 @@
       <c r="R112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:18">
+      <c r="S112">
+        <v>16.174666999999999</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>16.940087999999999</v>
       </c>
@@ -6676,8 +7386,14 @@
       <c r="R113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:18">
+      <c r="S113">
+        <v>16.940087999999999</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>17.741731000000001</v>
       </c>
@@ -6732,8 +7448,14 @@
       <c r="R114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:18">
+      <c r="S114">
+        <v>17.741731000000001</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>18.581309000000001</v>
       </c>
@@ -6788,8 +7510,14 @@
       <c r="R115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:18">
+      <c r="S115">
+        <v>18.581309000000001</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>19.460618</v>
       </c>
@@ -6844,8 +7572,14 @@
       <c r="R116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:18">
+      <c r="S116">
+        <v>19.460618</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>20.381537999999999</v>
       </c>
@@ -6900,8 +7634,14 @@
       <c r="R117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:18">
+      <c r="S117">
+        <v>20.381537999999999</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>21.346038</v>
       </c>
@@ -6956,8 +7696,14 @@
       <c r="R118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:18">
+      <c r="S118">
+        <v>21.346038</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>22.356179999999998</v>
       </c>
@@ -7012,8 +7758,14 @@
       <c r="R119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:18">
+      <c r="S119">
+        <v>22.356179999999998</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>23.414124000000001</v>
       </c>
@@ -7068,8 +7820,14 @@
       <c r="R120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:18">
+      <c r="S120">
+        <v>23.414124000000001</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>24.522131999999999</v>
       </c>
@@ -7124,8 +7882,14 @@
       <c r="R121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:18">
+      <c r="S121">
+        <v>24.522131999999999</v>
+      </c>
+      <c r="T121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>25.682573999999999</v>
       </c>
@@ -7180,8 +7944,14 @@
       <c r="R122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:18">
+      <c r="S122">
+        <v>25.682573999999999</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>26.897931</v>
       </c>
@@ -7236,8 +8006,14 @@
       <c r="R123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:18">
+      <c r="S123">
+        <v>26.897931</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>28.170801000000001</v>
       </c>
@@ -7292,8 +8068,14 @@
       <c r="R124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:18">
+      <c r="S124">
+        <v>28.170801000000001</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>29.503906000000001</v>
       </c>
@@ -7348,8 +8130,14 @@
       <c r="R125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:18">
+      <c r="S125">
+        <v>29.503906000000001</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>30.900096999999999</v>
       </c>
@@ -7404,8 +8192,15 @@
       <c r="R126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:18">
+      <c r="S126">
+        <v>30.900096999999999</v>
+      </c>
+      <c r="T126">
+        <f>Y5</f>
+        <v>0.97149975377009112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>32.362358</v>
       </c>
@@ -7460,8 +8255,14 @@
       <c r="R127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:18">
+      <c r="S127">
+        <v>32.362358</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>33.893816999999999</v>
       </c>
@@ -7516,8 +8317,14 @@
       <c r="R128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:18">
+      <c r="S128">
+        <v>33.893816999999999</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>35.497748000000001</v>
       </c>
@@ -7572,8 +8379,14 @@
       <c r="R129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:18">
+      <c r="S129">
+        <v>35.497748000000001</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>37.177581000000004</v>
       </c>
@@ -7628,8 +8441,14 @@
       <c r="R130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:18">
+      <c r="S130">
+        <v>37.177581000000004</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>38.936906999999998</v>
       </c>
@@ -7684,8 +8503,14 @@
       <c r="R131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:18">
+      <c r="S131">
+        <v>38.936906999999998</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>40.779488000000001</v>
       </c>
@@ -7740,8 +8565,14 @@
       <c r="R132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:18">
+      <c r="S132">
+        <v>40.779488000000001</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>42.709263999999997</v>
       </c>
@@ -7796,8 +8627,14 @@
       <c r="R133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18">
+      <c r="S133">
+        <v>42.709263999999997</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>44.730362</v>
       </c>
@@ -7852,8 +8689,14 @@
       <c r="R134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:18">
+      <c r="S134">
+        <v>44.730362</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>46.847102</v>
       </c>
@@ -7908,8 +8751,14 @@
       <c r="R135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:18">
+      <c r="S135">
+        <v>46.847102</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>49.064011000000001</v>
       </c>
@@ -7964,8 +8813,14 @@
       <c r="R136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:18">
+      <c r="S136">
+        <v>49.064011000000001</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>51.385829999999999</v>
       </c>
@@ -8020,8 +8875,14 @@
       <c r="R137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:18">
+      <c r="S137">
+        <v>51.385829999999999</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>53.817521999999997</v>
       </c>
@@ -8076,8 +8937,14 @@
       <c r="R138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:18">
+      <c r="S138">
+        <v>53.817521999999997</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>56.364286999999997</v>
       </c>
@@ -8132,8 +8999,14 @@
       <c r="R139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:18">
+      <c r="S139">
+        <v>56.364286999999997</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>59.031570000000002</v>
       </c>
@@ -8188,8 +9061,14 @@
       <c r="R140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:18">
+      <c r="S140">
+        <v>59.031570000000002</v>
+      </c>
+      <c r="T140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>61.825076000000003</v>
       </c>
@@ -8244,8 +9123,14 @@
       <c r="R141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:18">
+      <c r="S141">
+        <v>61.825076000000003</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>64.750776000000002</v>
       </c>
@@ -8300,8 +9185,14 @@
       <c r="R142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:18">
+      <c r="S142">
+        <v>64.750776000000002</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>67.814926999999997</v>
       </c>
@@ -8356,8 +9247,14 @@
       <c r="R143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:18">
+      <c r="S143">
+        <v>67.814926999999997</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>71.024080999999995</v>
       </c>
@@ -8412,8 +9309,14 @@
       <c r="R144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:18">
+      <c r="S144">
+        <v>71.024080999999995</v>
+      </c>
+      <c r="T144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>74.385098999999997</v>
       </c>
@@ -8468,8 +9371,14 @@
       <c r="R145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18">
+      <c r="S145">
+        <v>74.385098999999997</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>77.905167000000006</v>
       </c>
@@ -8524,8 +9433,14 @@
       <c r="R146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:18">
+      <c r="S146">
+        <v>77.905167000000006</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>81.591813999999999</v>
       </c>
@@ -8580,8 +9495,14 @@
       <c r="R147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:18">
+      <c r="S147">
+        <v>81.591813999999999</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>85.452920000000006</v>
       </c>
@@ -8636,8 +9557,14 @@
       <c r="R148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:18">
+      <c r="S148">
+        <v>85.452920000000006</v>
+      </c>
+      <c r="T148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>89.496742999999995</v>
       </c>
@@ -8692,8 +9619,14 @@
       <c r="R149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:18">
+      <c r="S149">
+        <v>89.496742999999995</v>
+      </c>
+      <c r="T149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>93.731927999999996</v>
       </c>
@@ -8748,8 +9681,14 @@
       <c r="R150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:18">
+      <c r="S150">
+        <v>93.731927999999996</v>
+      </c>
+      <c r="T150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>98.167531999999994</v>
       </c>
@@ -8804,8 +9743,14 @@
       <c r="R151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:18">
+      <c r="S151">
+        <v>98.167531999999994</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>102.81303800000001</v>
       </c>
@@ -8860,8 +9805,14 @@
       <c r="R152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:18">
+      <c r="S152">
+        <v>102.81303800000001</v>
+      </c>
+      <c r="T152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>107.67838</v>
       </c>
@@ -8916,8 +9867,14 @@
       <c r="R153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:18">
+      <c r="S153">
+        <v>107.67838</v>
+      </c>
+      <c r="T153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>112.773961</v>
       </c>
@@ -8972,8 +9929,14 @@
       <c r="R154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:18">
+      <c r="S154">
+        <v>112.773961</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>118.110676</v>
       </c>
@@ -9028,8 +9991,14 @@
       <c r="R155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:18">
+      <c r="S155">
+        <v>118.110676</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>123.69993700000001</v>
       </c>
@@ -9084,8 +10053,14 @@
       <c r="R156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:18">
+      <c r="S156">
+        <v>123.69993700000001</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>129.55369400000001</v>
       </c>
@@ -9140,8 +10115,14 @@
       <c r="R157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:18">
+      <c r="S157">
+        <v>129.55369400000001</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>135.68446299999999</v>
       </c>
@@ -9196,8 +10177,14 @@
       <c r="R158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:18">
+      <c r="S158">
+        <v>135.68446299999999</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>142.10535400000001</v>
       </c>
@@ -9252,8 +10239,14 @@
       <c r="R159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:18">
+      <c r="S159">
+        <v>142.10535400000001</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>148.830096</v>
       </c>
@@ -9308,8 +10301,14 @@
       <c r="R160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:18">
+      <c r="S160">
+        <v>148.830096</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>155.87306799999999</v>
       </c>
@@ -9364,8 +10363,14 @@
       <c r="R161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:18">
+      <c r="S161">
+        <v>155.87306799999999</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>163.24932899999999</v>
       </c>
@@ -9420,8 +10425,14 @@
       <c r="R162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:18">
+      <c r="S162">
+        <v>163.24932899999999</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>170.97465099999999</v>
       </c>
@@ -9476,8 +10487,14 @@
       <c r="R163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:18">
+      <c r="S163">
+        <v>170.97465099999999</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>179.06555299999999</v>
       </c>
@@ -9532,8 +10549,14 @@
       <c r="R164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:18">
+      <c r="S164">
+        <v>179.06555299999999</v>
+      </c>
+      <c r="T164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>187.539334</v>
       </c>
@@ -9588,8 +10611,14 @@
       <c r="R165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:18">
+      <c r="S165">
+        <v>187.539334</v>
+      </c>
+      <c r="T165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>196.41411299999999</v>
       </c>
@@ -9644,8 +10673,14 @@
       <c r="R166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:18">
+      <c r="S166">
+        <v>196.41411299999999</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>205.708867</v>
       </c>
@@ -9700,8 +10735,14 @@
       <c r="R167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:18">
+      <c r="S167">
+        <v>205.708867</v>
+      </c>
+      <c r="T167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>215.44346899999999</v>
       </c>
@@ -9756,8 +10797,14 @@
       <c r="R168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:18">
+      <c r="S168">
+        <v>215.44346899999999</v>
+      </c>
+      <c r="T168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>225.638734</v>
       </c>
@@ -9812,8 +10859,14 @@
       <c r="R169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:18">
+      <c r="S169">
+        <v>225.638734</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>236.316462</v>
       </c>
@@ -9868,8 +10921,14 @@
       <c r="R170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:18">
+      <c r="S170">
+        <v>236.316462</v>
+      </c>
+      <c r="T170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>247.499484</v>
       </c>
@@ -9924,8 +10983,14 @@
       <c r="R171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:18">
+      <c r="S171">
+        <v>247.499484</v>
+      </c>
+      <c r="T171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>259.21171099999998</v>
       </c>
@@ -9980,8 +11045,14 @@
       <c r="R172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:18">
+      <c r="S172">
+        <v>259.21171099999998</v>
+      </c>
+      <c r="T172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>271.47818699999999</v>
       </c>
@@ -10036,8 +11107,14 @@
       <c r="R173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:18">
+      <c r="S173">
+        <v>271.47818699999999</v>
+      </c>
+      <c r="T173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>284.32513999999998</v>
       </c>
@@ -10092,8 +11169,14 @@
       <c r="R174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:18">
+      <c r="S174">
+        <v>284.32513999999998</v>
+      </c>
+      <c r="T174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>297.78003899999999</v>
       </c>
@@ -10148,8 +11231,14 @@
       <c r="R175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:18">
+      <c r="S175">
+        <v>297.78003899999999</v>
+      </c>
+      <c r="T175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>311.87165399999998</v>
       </c>
@@ -10204,8 +11293,14 @@
       <c r="R176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:18">
+      <c r="S176">
+        <v>311.87165399999998</v>
+      </c>
+      <c r="T176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>326.63011599999999</v>
       </c>
@@ -10260,8 +11355,14 @@
       <c r="R177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:18">
+      <c r="S177">
+        <v>326.63011599999999</v>
+      </c>
+      <c r="T177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>342.08698099999998</v>
       </c>
@@ -10316,8 +11417,14 @@
       <c r="R178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:18">
+      <c r="S178">
+        <v>342.08698099999998</v>
+      </c>
+      <c r="T178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>358.27529900000002</v>
       </c>
@@ -10372,8 +11479,14 @@
       <c r="R179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:18">
+      <c r="S179">
+        <v>358.27529900000002</v>
+      </c>
+      <c r="T179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>375.22968500000002</v>
       </c>
@@ -10428,8 +11541,14 @@
       <c r="R180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:18">
+      <c r="S180">
+        <v>375.22968500000002</v>
+      </c>
+      <c r="T180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>392.98638999999997</v>
       </c>
@@ -10484,8 +11603,14 @@
       <c r="R181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:18">
+      <c r="S181">
+        <v>392.98638999999997</v>
+      </c>
+      <c r="T181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>411.58338199999997</v>
       </c>
@@ -10540,8 +11665,14 @@
       <c r="R182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:18">
+      <c r="S182">
+        <v>411.58338199999997</v>
+      </c>
+      <c r="T182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>431.06042500000001</v>
       </c>
@@ -10596,8 +11727,14 @@
       <c r="R183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:18">
+      <c r="S183">
+        <v>431.06042500000001</v>
+      </c>
+      <c r="T183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>451.45916499999998</v>
       </c>
@@ -10652,8 +11789,14 @@
       <c r="R184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:18">
+      <c r="S184">
+        <v>451.45916499999998</v>
+      </c>
+      <c r="T184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>472.82321899999999</v>
       </c>
@@ -10708,8 +11851,14 @@
       <c r="R185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:18">
+      <c r="S185">
+        <v>472.82321899999999</v>
+      </c>
+      <c r="T185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>495.19826699999999</v>
       </c>
@@ -10764,8 +11913,14 @@
       <c r="R186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:18">
+      <c r="S186">
+        <v>495.19826699999999</v>
+      </c>
+      <c r="T186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>518.63215300000002</v>
       </c>
@@ -10820,8 +11975,14 @@
       <c r="R187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:18">
+      <c r="S187">
+        <v>518.63215300000002</v>
+      </c>
+      <c r="T187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>543.174982</v>
       </c>
@@ -10876,8 +12037,14 @@
       <c r="R188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:18">
+      <c r="S188">
+        <v>543.174982</v>
+      </c>
+      <c r="T188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>568.879233</v>
       </c>
@@ -10932,8 +12099,14 @@
       <c r="R189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:18">
+      <c r="S189">
+        <v>568.879233</v>
+      </c>
+      <c r="T189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>595.79986699999995</v>
       </c>
@@ -10988,8 +12161,14 @@
       <c r="R190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:18">
+      <c r="S190">
+        <v>595.79986699999995</v>
+      </c>
+      <c r="T190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>623.99444400000004</v>
       </c>
@@ -11044,8 +12223,14 @@
       <c r="R191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:18">
+      <c r="S191">
+        <v>623.99444400000004</v>
+      </c>
+      <c r="T191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>653.52325199999996</v>
       </c>
@@ -11100,8 +12285,14 @@
       <c r="R192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:18">
+      <c r="S192">
+        <v>653.52325199999996</v>
+      </c>
+      <c r="T192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>684.44942900000001</v>
       </c>
@@ -11156,8 +12347,14 @@
       <c r="R193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:18">
+      <c r="S193">
+        <v>684.44942900000001</v>
+      </c>
+      <c r="T193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>716.83910100000003</v>
       </c>
@@ -11212,8 +12409,14 @@
       <c r="R194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:18">
+      <c r="S194">
+        <v>716.83910100000003</v>
+      </c>
+      <c r="T194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>750.76152500000001</v>
       </c>
@@ -11268,8 +12471,14 @@
       <c r="R195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:18">
+      <c r="S195">
+        <v>750.76152500000001</v>
+      </c>
+      <c r="T195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>786.28923399999996</v>
       </c>
@@ -11324,8 +12533,14 @@
       <c r="R196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:18">
+      <c r="S196">
+        <v>786.28923399999996</v>
+      </c>
+      <c r="T196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>823.49819300000001</v>
       </c>
@@ -11380,8 +12595,14 @@
       <c r="R197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:18">
+      <c r="S197">
+        <v>823.49819300000001</v>
+      </c>
+      <c r="T197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>862.46796300000005</v>
       </c>
@@ -11436,8 +12657,14 @@
       <c r="R198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:18">
+      <c r="S198">
+        <v>862.46796300000005</v>
+      </c>
+      <c r="T198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>903.28186900000003</v>
       </c>
@@ -11492,8 +12719,14 @@
       <c r="R199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:18">
+      <c r="S199">
+        <v>903.28186900000003</v>
+      </c>
+      <c r="T199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>946.02718100000004</v>
       </c>
@@ -11548,8 +12781,14 @@
       <c r="R200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:18">
+      <c r="S200">
+        <v>946.02718100000004</v>
+      </c>
+      <c r="T200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>990.79529500000001</v>
       </c>
@@ -11604,8 +12843,14 @@
       <c r="R201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:18">
+      <c r="S201">
+        <v>990.79529500000001</v>
+      </c>
+      <c r="T201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1037.6819370000001</v>
       </c>
@@ -11660,8 +12905,14 @@
       <c r="R202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:18">
+      <c r="S202">
+        <v>1037.6819370000001</v>
+      </c>
+      <c r="T202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1086.7873589999999</v>
       </c>
@@ -11716,8 +12967,14 @@
       <c r="R203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:18">
+      <c r="S203">
+        <v>1086.7873589999999</v>
+      </c>
+      <c r="T203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1138.216559</v>
       </c>
@@ -11772,8 +13029,14 @@
       <c r="R204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:18">
+      <c r="S204">
+        <v>1138.216559</v>
+      </c>
+      <c r="T204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1192.079504</v>
       </c>
@@ -11828,8 +13091,14 @@
       <c r="R205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:18">
+      <c r="S205">
+        <v>1192.079504</v>
+      </c>
+      <c r="T205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1248.4913630000001</v>
       </c>
@@ -11884,8 +13153,14 @@
       <c r="R206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:18">
+      <c r="S206">
+        <v>1248.4913630000001</v>
+      </c>
+      <c r="T206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1307.5727569999999</v>
       </c>
@@ -11940,8 +13215,14 @@
       <c r="R207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:18">
+      <c r="S207">
+        <v>1307.5727569999999</v>
+      </c>
+      <c r="T207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1369.450014</v>
       </c>
@@ -11996,8 +13277,14 @@
       <c r="R208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:18">
+      <c r="S208">
+        <v>1369.450014</v>
+      </c>
+      <c r="T208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1434.255441</v>
       </c>
@@ -12052,8 +13339,14 @@
       <c r="R209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:18">
+      <c r="S209">
+        <v>1434.255441</v>
+      </c>
+      <c r="T209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1502.1276049999999</v>
       </c>
@@ -12108,8 +13401,14 @@
       <c r="R210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:18">
+      <c r="S210">
+        <v>1502.1276049999999</v>
+      </c>
+      <c r="T210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1573.2116309999999</v>
       </c>
@@ -12164,8 +13463,14 @@
       <c r="R211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:18">
+      <c r="S211">
+        <v>1573.2116309999999</v>
+      </c>
+      <c r="T211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1647.6595119999999</v>
       </c>
@@ -12220,8 +13525,14 @@
       <c r="R212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:18">
+      <c r="S212">
+        <v>1647.6595119999999</v>
+      </c>
+      <c r="T212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1725.6304319999999</v>
       </c>
@@ -12276,8 +13587,14 @@
       <c r="R213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:18">
+      <c r="S213">
+        <v>1725.6304319999999</v>
+      </c>
+      <c r="T213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1807.291111</v>
       </c>
@@ -12332,8 +13649,14 @@
       <c r="R214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:18">
+      <c r="S214">
+        <v>1807.291111</v>
+      </c>
+      <c r="T214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1892.8161540000001</v>
       </c>
@@ -12388,8 +13711,14 @@
       <c r="R215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:18">
+      <c r="S215">
+        <v>1892.8161540000001</v>
+      </c>
+      <c r="T215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1982.3884330000001</v>
       </c>
@@ -12444,8 +13773,14 @@
       <c r="R216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:18">
+      <c r="S216">
+        <v>1982.3884330000001</v>
+      </c>
+      <c r="T216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>2076.1994719999998</v>
       </c>
@@ -12500,8 +13835,14 @@
       <c r="R217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:18">
+      <c r="S217">
+        <v>2076.1994719999998</v>
+      </c>
+      <c r="T217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>2174.4498589999998</v>
       </c>
@@ -12556,8 +13897,14 @@
       <c r="R218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:18">
+      <c r="S218">
+        <v>2174.4498589999998</v>
+      </c>
+      <c r="T218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2277.3496719999998</v>
       </c>
@@ -12612,8 +13959,14 @@
       <c r="R219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:18">
+      <c r="S219">
+        <v>2277.3496719999998</v>
+      </c>
+      <c r="T219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>2385.118935</v>
       </c>
@@ -12668,8 +14021,14 @@
       <c r="R220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:18">
+      <c r="S220">
+        <v>2385.118935</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>2497.9880790000002</v>
       </c>
@@ -12724,8 +14083,14 @@
       <c r="R221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:18">
+      <c r="S221">
+        <v>2497.9880790000002</v>
+      </c>
+      <c r="T221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2616.1984419999999</v>
       </c>
@@ -12780,8 +14145,14 @@
       <c r="R222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:18">
+      <c r="S222">
+        <v>2616.1984419999999</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2740.0027839999998</v>
       </c>
@@ -12836,8 +14207,14 @@
       <c r="R223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:18">
+      <c r="S223">
+        <v>2740.0027839999998</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2869.6658219999999</v>
       </c>
@@ -12892,8 +14269,14 @@
       <c r="R224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:18">
+      <c r="S224">
+        <v>2869.6658219999999</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3005.4648050000001</v>
       </c>
@@ -12948,8 +14331,14 @@
       <c r="R225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:18">
+      <c r="S225">
+        <v>3005.4648050000001</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3147.690098</v>
       </c>
@@ -13004,8 +14393,14 @@
       <c r="R226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:18">
+      <c r="S226">
+        <v>3147.690098</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3296.6458090000001</v>
       </c>
@@ -13060,8 +14455,14 @@
       <c r="R227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:18">
+      <c r="S227">
+        <v>3296.6458090000001</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3452.6504359999999</v>
       </c>
@@ -13116,8 +14517,14 @@
       <c r="R228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:18">
+      <c r="S228">
+        <v>3452.6504359999999</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3616.03755</v>
       </c>
@@ -13172,8 +14579,14 @@
       <c r="R229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:18">
+      <c r="S229">
+        <v>3616.03755</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3787.1565070000001</v>
       </c>
@@ -13228,8 +14641,14 @@
       <c r="R230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:18">
+      <c r="S230">
+        <v>3787.1565070000001</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3966.3731939999998</v>
       </c>
@@ -13284,8 +14703,14 @@
       <c r="R231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:18">
+      <c r="S231">
+        <v>3966.3731939999998</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4154.0708139999997</v>
       </c>
@@ -13340,8 +14765,14 @@
       <c r="R232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:18">
+      <c r="S232">
+        <v>4154.0708139999997</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4350.6507030000002</v>
       </c>
@@ -13396,8 +14827,14 @@
       <c r="R233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:18">
+      <c r="S233">
+        <v>4350.6507030000002</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4556.5331910000004</v>
       </c>
@@ -13452,8 +14889,14 @@
       <c r="R234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:18">
+      <c r="S234">
+        <v>4556.5331910000004</v>
+      </c>
+      <c r="T234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4772.1584970000004</v>
       </c>
@@ -13508,8 +14951,14 @@
       <c r="R235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:18">
+      <c r="S235">
+        <v>4772.1584970000004</v>
+      </c>
+      <c r="T235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4997.987674</v>
       </c>
@@ -13564,8 +15013,14 @@
       <c r="R236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:18">
+      <c r="S236">
+        <v>4997.987674</v>
+      </c>
+      <c r="T236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>5234.5035900000003</v>
       </c>
@@ -13620,8 +15075,14 @@
       <c r="R237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:18">
+      <c r="S237">
+        <v>5234.5035900000003</v>
+      </c>
+      <c r="T237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>5482.2119670000002</v>
       </c>
@@ -13676,8 +15137,14 @@
       <c r="R238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:18">
+      <c r="S238">
+        <v>5482.2119670000002</v>
+      </c>
+      <c r="T238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>5741.6424559999996</v>
       </c>
@@ -13732,8 +15199,14 @@
       <c r="R239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:18">
+      <c r="S239">
+        <v>5741.6424559999996</v>
+      </c>
+      <c r="T239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>6013.3497740000003</v>
       </c>
@@ -13788,8 +15261,14 @@
       <c r="R240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:18">
+      <c r="S240">
+        <v>6013.3497740000003</v>
+      </c>
+      <c r="T240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>6297.9148880000002</v>
       </c>
@@ -13844,8 +15323,14 @@
       <c r="R241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:18">
+      <c r="S241">
+        <v>6297.9148880000002</v>
+      </c>
+      <c r="T241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>6595.9462569999996</v>
       </c>
@@ -13900,8 +15385,14 @@
       <c r="R242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:18">
+      <c r="S242">
+        <v>6595.9462569999996</v>
+      </c>
+      <c r="T242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>6908.0811350000004</v>
       </c>
@@ -13956,8 +15447,14 @@
       <c r="R243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:18">
+      <c r="S243">
+        <v>6908.0811350000004</v>
+      </c>
+      <c r="T243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>7234.9869319999998</v>
       </c>
@@ -14012,8 +15509,14 @@
       <c r="R244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:18">
+      <c r="S244">
+        <v>7234.9869319999998</v>
+      </c>
+      <c r="T244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>7577.3626389999999</v>
       </c>
@@ -14068,8 +15571,14 @@
       <c r="R245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:18">
+      <c r="S245">
+        <v>7577.3626389999999</v>
+      </c>
+      <c r="T245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>7935.9403270000003</v>
       </c>
@@ -14124,8 +15633,14 @@
       <c r="R246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:18">
+      <c r="S246">
+        <v>7935.9403270000003</v>
+      </c>
+      <c r="T246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>8311.4867109999996</v>
       </c>
@@ -14180,8 +15695,14 @@
       <c r="R247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:18">
+      <c r="S247">
+        <v>8311.4867109999996</v>
+      </c>
+      <c r="T247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>8704.8047869999991</v>
       </c>
@@ -14236,8 +15757,14 @@
       <c r="R248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:18">
+      <c r="S248">
+        <v>8704.8047869999991</v>
+      </c>
+      <c r="T248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>9116.7355509999998</v>
       </c>
@@ -14292,8 +15819,14 @@
       <c r="R249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:18">
+      <c r="S249">
+        <v>9116.7355509999998</v>
+      </c>
+      <c r="T249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>9548.1597970000003</v>
       </c>
@@ -14348,8 +15881,14 @@
       <c r="R250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:18">
+      <c r="S250">
+        <v>9548.1597970000003</v>
+      </c>
+      <c r="T250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>10000</v>
       </c>
@@ -14404,8 +15943,14 @@
       <c r="R251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:18">
+      <c r="S251">
+        <v>10000</v>
+      </c>
+      <c r="T251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1</v>
       </c>
@@ -14433,8 +15978,11 @@
       <c r="Q252" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:18">
+      <c r="S252" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>2.9232330000000002</v>
       </c>
@@ -14489,8 +16037,11 @@
       <c r="R253">
         <v>0.82086500268649298</v>
       </c>
-    </row>
-    <row r="254" spans="1:18">
+      <c r="S253">
+        <v>2.9232330000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>33.893816999999999</v>
       </c>
@@ -14533,8 +16084,11 @@
       <c r="Q254" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:18">
+      <c r="S254">
+        <v>33.893816999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2</v>
       </c>
@@ -14548,6 +16102,9 @@
         <v>2</v>
       </c>
       <c r="I255" t="s">
+        <v>2</v>
+      </c>
+      <c r="S255" t="s">
         <v>2</v>
       </c>
     </row>
@@ -14557,24 +16114,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
